--- a/studies/labor study_A/Fragebögen/data/fragebogen_Lernende_002.xlsx
+++ b/studies/labor study_A/Fragebögen/data/fragebogen_Lernende_002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\studies\labor study_A\Fragebögen\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E5CE13-DF22-47FF-BF66-B021E4DFA382}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAA9A05-DEEF-4C10-A84A-6D2C4999A4BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{8CF18335-A014-4D58-B979-FFCA93177016}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="113">
   <si>
     <t>itemid</t>
   </si>
@@ -42,18 +42,12 @@
     <t>Lernförderliches Klima und Motivierung</t>
   </si>
   <si>
-    <t>Ich habe alles mitbekommen, was in der Klasse passiert ist.</t>
-  </si>
-  <si>
     <t>Die gesamte Unterrichtssequenz wurde für den Lernstoff verwendet.</t>
   </si>
   <si>
     <t>Mir als Lernende*r war jederzeit klar, was sie tun sollten.</t>
   </si>
   <si>
-    <t>Ich als Lernende*r konnte ungestört arbeiten</t>
-  </si>
-  <si>
     <t>Ich als Lernende*r  war die ganze Stunde über aktiv bei der Sache.</t>
   </si>
   <si>
@@ -66,15 +60,9 @@
     <t>Die unterrichteten Inhalte hatten etwas etwas mit den Interessen/den Alltagserfahrungen/der Lebenserfahrung der Lernenden zu tun.</t>
   </si>
   <si>
-    <t>Die Lehrperson hat Fehler nicht kritisiert, sondern als Lerngelegenheit betrachtet</t>
-  </si>
-  <si>
     <t>Die Lehrperson hat Lernende ausreden lassen, wenn sie dran waren.</t>
   </si>
   <si>
-    <t>Wenn ich Fragen oder Aufgaben gestellt habe, habe ich den Lernenden ausreichend Zeit zum Überlegen gelassen</t>
-  </si>
-  <si>
     <t>Wenn die Lehrperson Fragen oder Aufgaben gestellt habe, habe ich den Lernenden ausreichend Zeit zum Überlegen gelassen.</t>
   </si>
   <si>
@@ -84,12 +72,6 @@
     <t>Klarheit und Strukturiertheit</t>
   </si>
   <si>
-    <t>Ich habe darauf geachtet, dass jeder klar und deutlich spricht</t>
-  </si>
-  <si>
-    <t>Die wichtigsten Punkte wurden zusammengefasst</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -105,12 +87,6 @@
     <t>Aktivierungund Förderung</t>
   </si>
   <si>
-    <t>Die Lernenden haben sich mit eigenen Beiträgen am Unterrichtsgespräch beteiligt</t>
-  </si>
-  <si>
-    <t>Sofern möglich, haben sich die Lernenden wechselseitig etwas erklärt, sich Fragen gestellt oder Rückmeldung gegeben</t>
-  </si>
-  <si>
     <t>Es gab Fragen oder Aufgaben, bei denen ich als Lernende*r richtig nachdenken mussten.</t>
   </si>
   <si>
@@ -153,9 +129,6 @@
     <t xml:space="preserve">Die Gestik und Mimik unterstützen den Ausdruck der Lehrperson. </t>
   </si>
   <si>
-    <t>(Die Lehrkraft verwendete ausschließlich Standardsprache im Unterricht.)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Meine Einschätzung des Redeanteils der Lehrkraft liegt bei ____ %. </t>
   </si>
   <si>
@@ -223,6 +196,174 @@
   </si>
   <si>
     <t>scale: stimme nicht zu /stimme eher nicht zu / stimme eher zu / stimme zu / keine Angabe / freie Angabe</t>
+  </si>
+  <si>
+    <t>km_mitbekommen</t>
+  </si>
+  <si>
+    <t>km_klar</t>
+  </si>
+  <si>
+    <t>km_lernstoff</t>
+  </si>
+  <si>
+    <t>km_unegstört</t>
+  </si>
+  <si>
+    <t>Ich als Lernende*r konnte ungestört arbeiten.</t>
+  </si>
+  <si>
+    <t>km_aktiv</t>
+  </si>
+  <si>
+    <t>km_regeln</t>
+  </si>
+  <si>
+    <t>lkm_freundlich</t>
+  </si>
+  <si>
+    <t>lkm_interesse</t>
+  </si>
+  <si>
+    <t>lkm_kritik</t>
+  </si>
+  <si>
+    <t>Die Lehrperson hat Fehler nicht kritisiert, sondern als Lerngelegenheit betrachtet.</t>
+  </si>
+  <si>
+    <t>lkm_ausreden</t>
+  </si>
+  <si>
+    <t>ps_deutlich</t>
+  </si>
+  <si>
+    <t>ps_klar</t>
+  </si>
+  <si>
+    <t>lkm_überlegen</t>
+  </si>
+  <si>
+    <t>lkm_zeit_überlegen</t>
+  </si>
+  <si>
+    <t>lkm_rückmeldungen</t>
+  </si>
+  <si>
+    <t>ks_funktion</t>
+  </si>
+  <si>
+    <t>ks_verständlich</t>
+  </si>
+  <si>
+    <t>ks_sichtbar</t>
+  </si>
+  <si>
+    <t>ks_sprechen</t>
+  </si>
+  <si>
+    <t>Ich habe darauf geachtet, dass jeder klar und deutlich spricht.</t>
+  </si>
+  <si>
+    <t>Die wichtigsten Punkte wurden zusammengefasst.</t>
+  </si>
+  <si>
+    <t>Die Lernenden haben sich mit eigenen Beiträgen am Unterrichtsgespräch beteiligt.</t>
+  </si>
+  <si>
+    <t>Wenn ich Fragen oder Aufgaben gestellt habe, habe ich den Lernenden ausreichend Zeit zum Überlegen gelassen.</t>
+  </si>
+  <si>
+    <t>Sofern möglich, haben sich die Lernenden wechselseitig etwas erklärt, sich Fragen gestellt oder Rückmeldung gegeben.</t>
+  </si>
+  <si>
+    <t>ks_zusammen</t>
+  </si>
+  <si>
+    <t>af_beiträge</t>
+  </si>
+  <si>
+    <t>af_wechselseitig</t>
+  </si>
+  <si>
+    <t>af_nachdenken</t>
+  </si>
+  <si>
+    <t>af_esk</t>
+  </si>
+  <si>
+    <t>af_niveaus</t>
+  </si>
+  <si>
+    <t>af_verständlich</t>
+  </si>
+  <si>
+    <t>phb_stand</t>
+  </si>
+  <si>
+    <t>phb_augen</t>
+  </si>
+  <si>
+    <t>phb_blick</t>
+  </si>
+  <si>
+    <t>phb_raum</t>
+  </si>
+  <si>
+    <t>phb_gestik</t>
+  </si>
+  <si>
+    <t>pi_direkt</t>
+  </si>
+  <si>
+    <t>pi_zubewegen</t>
+  </si>
+  <si>
+    <t>pi_reaktion</t>
+  </si>
+  <si>
+    <t>pi_wahrgenommen</t>
+  </si>
+  <si>
+    <t>pi_ignoriert</t>
+  </si>
+  <si>
+    <t>m_natürlich</t>
+  </si>
+  <si>
+    <t>m_fiktiv</t>
+  </si>
+  <si>
+    <t>m_verhalten</t>
+  </si>
+  <si>
+    <t>pi_nonverbal</t>
+  </si>
+  <si>
+    <t>ps_redeanteil</t>
+  </si>
+  <si>
+    <t>ps_impulse</t>
+  </si>
+  <si>
+    <t>phb_alleangesehen</t>
+  </si>
+  <si>
+    <t>phb_vorsichgeht</t>
+  </si>
+  <si>
+    <t>Die Lehrperson hat alles mitbekommen, was in der Klasse passiert ist.</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>beobachtend</t>
+  </si>
+  <si>
+    <t>stimme eher zu</t>
   </si>
 </sst>
 </file>
@@ -267,18 +408,20 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,27 +737,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F403B895-D566-4AA1-9A4C-99160648D197}">
-  <dimension ref="A1:AC46"/>
+  <dimension ref="A1:AD45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="4" max="4" width="120.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="78.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="4"/>
+    <col min="2" max="2" width="37.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="120.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="10.90625" style="4"/>
+    <col min="11" max="11" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.90625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -622,39 +768,41 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -670,22 +818,33 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AD1" s="3"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -707,17 +866,20 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AD2" s="3"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -744,17 +906,20 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AD3" s="3"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
+      <c r="C4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -781,17 +946,20 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AD4" s="3"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
+      <c r="C5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -818,17 +986,20 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AD5" s="3"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="4" t="s">
-        <v>9</v>
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -855,17 +1026,20 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AD6" s="3"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
+      <c r="C7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -892,17 +1066,20 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+      <c r="AD7" s="3"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
+      <c r="C8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -929,17 +1106,20 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="AD8" s="3"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4" t="s">
-        <v>12</v>
+      <c r="C9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -966,17 +1146,20 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="AD9" s="3"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4" t="s">
-        <v>13</v>
+      <c r="C10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1003,17 +1186,20 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="AD10" s="3"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4" t="s">
-        <v>14</v>
+      <c r="C11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1040,17 +1226,20 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4" t="s">
-        <v>15</v>
+      <c r="C12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1077,17 +1266,20 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="AD12" s="3"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4" t="s">
-        <v>16</v>
+      <c r="C13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1114,17 +1306,20 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="AD13" s="3"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="4" t="s">
-        <v>17</v>
+      <c r="C14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1151,17 +1346,20 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+      <c r="AD14" s="3"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
         <v>3</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4" t="s">
-        <v>22</v>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1188,17 +1386,20 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+      <c r="AD15" s="3"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
         <v>3</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="4" t="s">
-        <v>23</v>
+      <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1225,17 +1426,20 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
         <v>3</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1262,17 +1466,20 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+      <c r="AD17" s="3"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
         <v>3</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="4" t="s">
-        <v>19</v>
+      <c r="B18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1299,17 +1506,20 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+      <c r="AD18" s="3"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
         <v>3</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="4" t="s">
-        <v>20</v>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1336,17 +1546,20 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
         <v>4</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="4" t="s">
-        <v>26</v>
+      <c r="B20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1373,17 +1586,20 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+      <c r="AD20" s="3"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
         <v>4</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="4" t="s">
-        <v>27</v>
+      <c r="B21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1410,17 +1626,20 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+      <c r="AD21" s="3"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
         <v>4</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4" t="s">
-        <v>28</v>
+      <c r="B22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1447,17 +1666,20 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+      <c r="AD22" s="3"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
         <v>4</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4" t="s">
-        <v>29</v>
+      <c r="B23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1484,17 +1706,20 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
+      <c r="AD23" s="3"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
         <v>4</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4" t="s">
-        <v>30</v>
+      <c r="B24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1521,17 +1746,20 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
+      <c r="AD24" s="3"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
         <v>4</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4" t="s">
-        <v>31</v>
+      <c r="B25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1558,17 +1786,20 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
+      <c r="AD25" s="3"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
         <v>5</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4" t="s">
-        <v>34</v>
+      <c r="B26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1595,225 +1826,272 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
+      <c r="AD26" s="3"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
         <v>5</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>5</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>5</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>5</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>5</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="4" t="s">
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>5</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>6</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
-        <v>5</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="4" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>6</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
-        <v>5</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="4" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>6</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
-        <v>5</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="4" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>6</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>7</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
-        <v>5</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="C37" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>7</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>7</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
-        <v>6</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="4" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>7</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>7</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>7</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
-        <v>6</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="4" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>8</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="5">
-        <v>6</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="5">
-        <v>6</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="C43" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="5">
-        <v>6</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="5">
-        <v>7</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>8</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="4" t="s">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>8</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="5">
-        <v>7</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="5">
-        <v>7</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="5">
-        <v>7</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="5">
-        <v>7</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="5">
-        <v>7</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="5">
-        <v>8</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="5">
-        <v>8</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="5">
-        <v>8</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
